--- a/data/income_statement/2digits/total/75_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/75_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>75-Veterinary activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>75-Veterinary activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>109105.39613</v>
@@ -959,34 +865,39 @@
         <v>188111.47809</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>207490.14742</v>
+        <v>207645.96039</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>217375.84965</v>
+        <v>217823.41403</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>253540.9878</v>
+        <v>254210.35229</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>327078.15782</v>
+        <v>327904.9227700001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>399971.54031</v>
+        <v>400258.27845</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>533510.7171</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>480354.35319</v>
+        <v>481673.92038</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>661007.37098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>676586.64884</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>918899.674</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>106057.91039</v>
@@ -998,34 +909,39 @@
         <v>181999.98056</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>201865.20128</v>
+        <v>202021.01425</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>210085.52246</v>
+        <v>210533.08684</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>247382.05677</v>
+        <v>248051.42126</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>318672.4462299999</v>
+        <v>319498.7742</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>390130.63039</v>
+        <v>390332.84917</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>519299.99233</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>467251.54097</v>
+        <v>468566.3584200001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>643630.23173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>658991.2365499999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>899017.798</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1315.69443</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>1359.07062</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>3749.14</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1731.79131</v>
@@ -1082,28 +1003,33 @@
         <v>6523.17984</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6023.60848</v>
+        <v>6023.608480000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8298.708570000001</v>
+        <v>8299.145550000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9630.26693</v>
+        <v>9714.78629</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>13046.15883</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>11133.1825</v>
+        <v>11137.93224</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>16018.06863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16236.34167</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>16132.736</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>143.26791</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>3988.41687</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1619.163</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>138.86181</v>
@@ -1163,10 +1094,10 @@
         <v>397.8805</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>972.8985099999999</v>
+        <v>972.89851</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>711.91259</v>
+        <v>711.9125900000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1563.34109</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>1258.03916</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>1504.286</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4.356100000000001</v>
@@ -1190,7 +1126,7 @@
         <v>4.64278</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7.430140000000001</v>
+        <v>7.43014</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>218.26405</v>
@@ -1208,7 +1144,7 @@
         <v>148.77445</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>533.88977</v>
+        <v>533.8897699999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1919.72479</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>2404.09375</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>33.45</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.05</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>326.28396</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>81.42700000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>108962.12822</v>
@@ -1271,34 +1217,39 @@
         <v>187011.52902</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>206846.50478</v>
+        <v>207002.31775</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>216527.50006</v>
+        <v>216975.06444</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>253101.74677</v>
+        <v>253771.11126</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>325895.21064</v>
+        <v>326721.97559</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>399008.7121</v>
+        <v>399295.45024</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>531243.9670600001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>477614.39265</v>
+        <v>478933.95984</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>657018.95411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>672598.2319700001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>917280.5110000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>79393.0128</v>
@@ -1310,34 +1261,39 @@
         <v>140565.19671</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>155567.50065</v>
+        <v>155647.64143</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>159286.63588</v>
+        <v>159592.21073</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>186804.15519</v>
+        <v>187278.17476</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>247722.05227</v>
+        <v>248348.4133</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>310307.17126</v>
+        <v>310498.26777</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>413939.21787</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>359225.0459500001</v>
+        <v>360061.19666</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>489536.02746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>500039.53711</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>648654.954</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>5628.88874</v>
@@ -1349,16 +1305,16 @@
         <v>7015.85878</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5514.34486</v>
+        <v>5514.344859999999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>6694.69725</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6734.00088</v>
+        <v>6891.152790000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12804.53946</v>
+        <v>13088.64336</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>16102.65265</v>
@@ -1370,13 +1326,18 @@
         <v>10325.19158</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13335.19521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13401.59054</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13750.998</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>61329.65032</v>
@@ -1388,34 +1349,39 @@
         <v>113761.76885</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>125636.64095</v>
+        <v>125700.92656</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>122951.78837</v>
+        <v>122992.08065</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>144622.53278</v>
+        <v>144692.72993</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>182887.14005</v>
+        <v>182947.11784</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>225975.72914</v>
+        <v>226145.23268</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>298110.67374</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>270940.36027</v>
+        <v>271443.6222</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>380884.16557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>389705.2167</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>492714.511</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>12409.41089</v>
@@ -1427,34 +1393,39 @@
         <v>19685.0808</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>24120.12095</v>
+        <v>24135.97612</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>29431.59975</v>
+        <v>29696.88232</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>35210.52847999999</v>
+        <v>35457.19899</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>51364.3049</v>
+        <v>51646.58424</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>67906.04837</v>
+        <v>67927.64134</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>81139.7665</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>77239.64238999999</v>
+        <v>77572.53117</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>92920.42003000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>94536.48321999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>139818.282</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>25.06285</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>2396.24665</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2371.163</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>29569.11542</v>
@@ -1502,37 +1478,42 @@
         <v>35842.35758</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>46446.33231000001</v>
+        <v>46446.33231</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>51279.00413</v>
+        <v>51354.67632000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>57240.86418</v>
+        <v>57382.85371</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>66297.59158000001</v>
+        <v>66492.9365</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>78173.15837</v>
+        <v>78373.56229</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>88701.54084</v>
+        <v>88797.18247</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>117304.74919</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>118389.3467</v>
+        <v>118872.76318</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>167482.92665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>172558.69486</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>268625.557</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>23224.78394</v>
@@ -1544,34 +1525,39 @@
         <v>35834.60856</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>40595.04764</v>
+        <v>40667.8594</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>43852.23220000001</v>
+        <v>43936.91774</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>49816.03371</v>
+        <v>49952.70376</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>58760.03051</v>
+        <v>58918.04078</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>63342.2937</v>
+        <v>63420.74784</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>80253.79742000002</v>
+        <v>80253.79742</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>94397.20331</v>
+        <v>94941.735</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>126961.92194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>131167.52037</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>199163.665</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>65.04523999999999</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>531.8798399999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4422.03821</v>
+        <v>4422.038210000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>5419.968269999999</v>
@@ -1622,16 +1613,16 @@
         <v>7727.536030000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8709.959000000001</v>
+        <v>8715.8331</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9602.73198</v>
+        <v>9612.9193</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10923.85854</v>
+        <v>10949.4491</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>13593.72921</v>
+        <v>13610.78454</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>10643.33623</v>
@@ -1640,16 +1631,21 @@
         <v>13718.39394</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>14041.04298</v>
+        <v>14069.48152</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17579.48511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17675.43352</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>22324.489</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>18737.70049</v>
@@ -1661,37 +1657,42 @@
         <v>28107.07253</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>31885.08864</v>
+        <v>31952.0263</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>34149.45105</v>
+        <v>34223.94927</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>38688.00234000001</v>
+        <v>38799.08183</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>44603.97944</v>
+        <v>44744.93438000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>52408.09018</v>
+        <v>52486.54432</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>66502.41324000001</v>
+        <v>66502.41323999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>80216.51448</v>
+        <v>80732.60763000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>108850.55699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>112960.20701</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>176628.306</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>6344.331480000001</v>
+        <v>6344.33148</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>8313.741680000001</v>
@@ -1700,34 +1701,39 @@
         <v>10611.72375</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>10683.95649</v>
+        <v>10686.81692</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>13388.63198</v>
+        <v>13445.93597</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>16481.55787</v>
+        <v>16540.23274</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>19413.12786</v>
+        <v>19455.52151</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25359.24714</v>
+        <v>25376.43463</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>37050.95177</v>
+        <v>37050.95176999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>23992.14339</v>
+        <v>23931.02818</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>40521.00471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41391.17449</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>69461.89200000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>344.0294499999999</v>
@@ -1739,7 +1745,7 @@
         <v>517.9405300000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>559.3819100000001</v>
+        <v>559.3819099999999</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>729.14962</v>
@@ -1748,25 +1754,30 @@
         <v>838.9257700000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2985.70029</v>
+        <v>2985.700290000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3124.10036</v>
+        <v>3125.4257</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4409.1925</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4761.94291</v>
+        <v>4798.190900000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6117.43929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6199.37926</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>7513.003</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>45.2099</v>
@@ -1877,13 +1898,18 @@
         <v>1345.43906</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2224.2352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2225.13987</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1785.553</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.432</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>11.071</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1043.73929</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3.06834</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>112.68257</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>43.678</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>89.85239</v>
@@ -2030,16 +2071,21 @@
         <v>1367.00877</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>937.7993999999999</v>
+        <v>974.0470099999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>917.6159399999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>917.73339</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3917.888</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.36868</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1e-05</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>44.88292</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>194.39581</v>
@@ -2141,28 +2197,33 @@
         <v>2114.24898</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1113.20513</v>
+        <v>1114.53047</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1635.77105</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1394.72626</v>
+        <v>1394.72664</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1772.91469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1853.83254</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1765.586</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>258.95749</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>276.37322</v>
+        <v>276.3732199999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>442.15685</v>
@@ -2174,10 +2235,10 @@
         <v>326.59862</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>389.11353</v>
+        <v>389.15808</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>706.8900599999999</v>
+        <v>706.8900600000001</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>1274.19832</v>
@@ -2186,16 +2247,21 @@
         <v>1416.25006</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4166.88587</v>
+        <v>4231.978459999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1748.94557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1752.85162</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6312.189</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>74.70324000000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>342.0262</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>251.97</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>111.26926</v>
@@ -2267,13 +2338,18 @@
         <v>2869.87362</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>528.8382800000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>532.49194</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>309.531</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>10.25932</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>12.84681</v>
@@ -2330,7 +2411,7 @@
         <v>22.53123</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>86.30865</v>
+        <v>86.30865000000001</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>328.69496</v>
@@ -2345,13 +2426,18 @@
         <v>504.14941</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>489.96413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>490.2160599999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5420.489</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3.61887</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.73625</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>59.40192999999999</v>
@@ -2447,7 +2543,7 @@
         <v>167.02873</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>115.13684</v>
+        <v>115.18139</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>188.92794</v>
@@ -2459,16 +2555,21 @@
         <v>175.85053</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>534.5436</v>
+        <v>599.6361899999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>374.23877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>374.23923</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>330.199</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1171.59569</v>
@@ -2483,10 +2584,10 @@
         <v>1955.96406</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1696.85528</v>
+        <v>1707.02385</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1974.8883</v>
+        <v>1982.5052</v>
       </c>
       <c r="I44" s="47" t="n">
         <v>2866.97203</v>
@@ -2498,16 +2599,21 @@
         <v>5581.57429</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6585.06377</v>
+        <v>6586.05636</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9441.271859999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9439.895</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9789.737999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1100.31654</v>
@@ -2522,10 +2628,10 @@
         <v>1924.2105</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1671.98507</v>
+        <v>1682.15364</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1829.16756</v>
+        <v>1836.78446</v>
       </c>
       <c r="I45" s="48" t="n">
         <v>2489.65046</v>
@@ -2537,16 +2643,21 @@
         <v>4779.07232</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6201.19546</v>
+        <v>6202.18805</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8804.062039999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8802.68518</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8915.504999999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>71.27914999999999</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>637.20982</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>874.2329999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5257.80775</v>
@@ -2594,46 +2710,51 @@
         <v>8250.681410000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9346.873220000001</v>
+        <v>9346.873219999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>9035.78692</v>
+        <v>9038.647349999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>12094.3277</v>
+        <v>12141.46312</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>14956.48181</v>
+        <v>15007.49523</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>18824.96606</v>
+        <v>18867.35971</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>23568.81322</v>
+        <v>23587.32605</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>34462.31992</v>
+        <v>34462.31991999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18002.13666</v>
+        <v>17911.18426</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>35448.22657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>36397.80713</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>60872.968</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>314.78238</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>609.8666999999999</v>
+        <v>609.8667</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>965.5645199999999</v>
+        <v>965.56452</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>1335.31704</v>
@@ -2648,22 +2769,27 @@
         <v>1875.30346</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2077.06064</v>
+        <v>2077.13741</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2791.6798</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2922.63299</v>
+        <v>2982.03899</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4769.14537</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4856.861190000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5537.664</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4.86071</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>49.548</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>309.92167</v>
@@ -2711,7 +2842,7 @@
         <v>605.3628700000002</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>965.5645199999999</v>
+        <v>965.56452</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>1331.26615</v>
@@ -2726,28 +2857,33 @@
         <v>1872.59789</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2077.06064</v>
+        <v>2077.13741</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2754.44398</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2915.49367</v>
+        <v>2974.89967</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4769.14537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4856.861190000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5488.116</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>623.39935</v>
+        <v>623.3993500000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>566.6220499999999</v>
+        <v>566.6220500000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>5364.936890000001</v>
@@ -2759,28 +2895,33 @@
         <v>925.29328</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4441.839909999999</v>
+        <v>4441.839910000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>825.2626300000001</v>
+        <v>825.2626299999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9469.51</v>
+        <v>9470.02111</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1520.69999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8054.581389999999</v>
+        <v>8054.58807</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1918.0468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1892.25885</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3307.443</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.00216</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>78.67826999999998</v>
@@ -2852,13 +2998,18 @@
         <v>610.03034</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>63.48527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>63.48533</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>176.256</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>544.7210799999999</v>
@@ -2882,61 +3033,71 @@
         <v>819.2965799999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>9373.132529999999</v>
+        <v>9373.64364</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1373.35034</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7444.548049999999</v>
+        <v>7444.554730000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1854.55937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1828.77136</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3131.185</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4949.190779999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8293.926059999998</v>
+        <v>8293.92606</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4947.50085</v>
+        <v>4947.500849999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>9407.47523</v>
+        <v>9410.335660000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>11989.05696</v>
+        <v>12036.19238</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>11438.32212</v>
+        <v>11489.33554</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>19875.00689</v>
+        <v>19917.40054</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>16176.36386</v>
+        <v>16194.44235</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>35733.29973</v>
+        <v>35733.29973000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>12870.18826</v>
+        <v>12838.63518</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>38299.32514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>39362.40947</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>63103.189</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1070.96983</v>
@@ -2948,7 +3109,7 @@
         <v>1890.53426</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2389.50597</v>
+        <v>2392.63637</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>2756.19573</v>
@@ -2960,22 +3121,27 @@
         <v>3752.65296</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4373.50477</v>
+        <v>4378.48176</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>4449.66095</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4934.90296</v>
+        <v>4947.18642</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>8511.906140000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>8803.39774</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>11076.89</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>3878.22095</v>
@@ -2987,31 +3153,34 @@
         <v>3056.96659</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>7017.96926</v>
+        <v>7017.699290000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9232.861229999999</v>
+        <v>9279.996650000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8267.176310000001</v>
+        <v>8318.18973</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>16122.35393</v>
+        <v>16164.74758</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>11802.85909</v>
+        <v>11815.96059</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>31283.63878</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7935.2853</v>
+        <v>7891.448759999998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>29787.419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>30559.01173</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>52026.299</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>665</v>
@@ -3041,31 +3213,34 @@
         <v>719</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>641</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>763</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>